--- a/results/result16072021-06-57_excel.xls.xlsx
+++ b/results/result16072021-06-57_excel.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9CE6A7-5AFC-43B3-BDA4-FE29CCCDAF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D834F14E-003F-4955-9EBB-19D3A09B7816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Validatie-terugmeldingen" sheetId="1" r:id="rId1"/>
@@ -4911,10 +4911,10 @@
     <t>Gezochte fout was de enige terugmelding:</t>
   </si>
   <si>
-    <t>Andere fout was de enige terugmelding:</t>
-  </si>
-  <si>
-    <t>Meerdere fouten teruggegeven in de keten:</t>
+    <t>Andere fouten waren de enige terugmelding:</t>
+  </si>
+  <si>
+    <t>Meerdere fouten, inclusief de goede teruggegeven in de keten:</t>
   </si>
   <si>
     <t>Geen fouten gevonden vanuit de keten:</t>
@@ -5787,7 +5787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -21284,7 +21286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F977"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -39487,9 +39489,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -39517,7 +39522,7 @@
         <v>1629</v>
       </c>
       <c r="E4">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -39525,7 +39530,7 @@
         <v>1630</v>
       </c>
       <c r="E5">
-        <v>121</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
